--- a/pcxzf/pcxzf/bazhouqu/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
+++ b/pcxzf/pcxzf/bazhouqu/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
@@ -1,224 +1,177 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13644"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="30720" windowHeight="13644" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>机器人添加时间</t>
-  </si>
-  <si>
-    <t>附件地址或文章所在地</t>
-  </si>
-  <si>
-    <t>快照</t>
-  </si>
-  <si>
-    <t>错敏词</t>
-  </si>
-  <si>
-    <t>推荐词</t>
-  </si>
-  <si>
-    <t>附件标题</t>
-  </si>
-  <si>
-    <t>父页面地址</t>
-  </si>
-  <si>
-    <t>父页面标题</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="20">
     <font>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -518,159 +471,159 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -918,7 +871,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -927,7 +880,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -940,11 +893,74 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1196,44 +1212,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>机器人添加时间</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>附件地址或文章所在地</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>快照</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>错敏词</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>推荐词</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>附件标题</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>父页面地址</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>父页面标题</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:47</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6597131/11710470.html</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=fcce998ca9584ecc99cbf23792f8eb02&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>以习近平新时代生态文明思想为指导</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>以习近平生态文明思想为指导</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>玉堂街道农作物秸秆等“五烧”管控及综合利用实施方案</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/column/6597131?type=4&amp;action=list&amp;nav=2&amp;sub=6&amp;catId=6716091</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>玉堂街道 &gt; 其他法定信息</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/pcxzf/pcxzf/bazhouqu/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
+++ b/pcxzf/pcxzf/bazhouqu/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
@@ -1217,7 +1217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
@@ -1268,44 +1268,254 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>2025-02-17 14:47</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>http://www.bzqzf.gov.cn/public/6597131/11710470.html</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=fcce998ca9584ecc99cbf23792f8eb02&amp;type=0</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>以习近平新时代生态文明思想为指导</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>以习近平生态文明思想为指导</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>玉堂街道农作物秸秆等“五烧”管控及综合利用实施方案</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>http://www.bzqzf.gov.cn/public/column/6597131?type=4&amp;action=list&amp;nav=2&amp;sub=6&amp;catId=6716091</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>玉堂街道 &gt; 其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-19 09:03</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6596701/11722852.html</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=f554b68b6c144d999e6f07f9c278eb52&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>截止目前</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>截至目前</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>巴中市巴州区国有资产监督管理局关于2024年度法治政府建设情况的报告</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/column/6596701?type=4&amp;catId=6715951&amp;action=list</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>区国资局 &gt; 其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-19 09:03</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6597151/9483041.html</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=55ab80023f5c4da4b9f4bb88b19d13db&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>党的十八大会议</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>党的十八大</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>贯彻十八大精神中解决民生问题专项情况汇报</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/column/6597151?type=4&amp;action=list&amp;nav=2&amp;sub=6&amp;catId=6716091&amp;pageIndex=23</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-19 09:03</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6597151/9483041.html</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=8fd5c0b3f8184895a778d79c9a2432b0&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>党的十八大会议</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>党的十八大</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>贯彻十八大精神中解决民生问题专项情况汇报</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/column/6597151?type=4&amp;action=list&amp;nav=2&amp;sub=6&amp;catId=6716091&amp;pageIndex=23</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-20 08:57</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6596961/9402031.html</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=f0e9fa72a4b44762879401495792332d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>省生态环境保护厅</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>省生态环境厅</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>2018工作总结和2019年工作计划</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/column/6596961?type=4&amp;action=list&amp;nav=2&amp;sub=1&amp;catId=6715861</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>规划信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-02-20 08:57</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6597391/11614800.html</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=33c30d28f4f34330883f2ad9f60eec6e&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>居民委会</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>居民委员会</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>巴中市巴州区东城街道办事处</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/column/6597391?type=4&amp;action=list&amp;nav=2&amp;sub=1&amp;catId=6715701&amp;pageIndex=8</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>翻页</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/bazhouqu/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
+++ b/pcxzf/pcxzf/bazhouqu/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
@@ -1217,7 +1217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
@@ -1478,44 +1478,296 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>2025-02-20 08:57</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>http://www.bzqzf.gov.cn/public/6597391/11614800.html</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=33c30d28f4f34330883f2ad9f60eec6e&amp;type=0</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="1" t="inlineStr">
         <is>
           <t>居民委会</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="1" t="inlineStr">
         <is>
           <t>居民委员会</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>巴中市巴州区东城街道办事处</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="1" t="inlineStr">
         <is>
           <t>http://www.bzqzf.gov.cn/public/column/6597391?type=4&amp;action=list&amp;nav=2&amp;sub=1&amp;catId=6715701&amp;pageIndex=8</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="1" t="inlineStr">
         <is>
           <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 14:31</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6596961/10979451.html</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=969e70d4575d4abd9b6e3179763b06db&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>州生态环境保护局</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>州生态环境局</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>关于2021年3月15日拟对1个建设项目环境影响评价文件作出审批意见的公示</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/column/6596961?type=4&amp;action=list&amp;nav=2&amp;sub=8&amp;catId=6715951&amp;pageIndex=3</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:31</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/jczwgk/gkly/lyly/zcwj/flfg/11600861.html</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=6e676a821d6249408b96b2b2b057c064&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>两路精神</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>“两路”精神</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>四川省旅游条例</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/jczwgk/gkly/lyly/index.html</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>旅游</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:31</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/jczwgk/gkly/lyly/zcwj/flfg/11600861.html</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=4fb512da9eea4d1e8a3feeb0c35b8d91&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>两弹一星精神</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>“两弹一星”精神</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>四川省旅游条例</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/jczwgk/gkly/lyly/index.html</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>旅游</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:31</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6596861/11723957.html</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=cfcc522aa95b4f6d8efd9b6c7424ad45&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>转帐</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>转账</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>巴中市自然资源和规划局巴州分局关于话筒、调音台等会议办公设备采购公告</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/column/6596861?type=4&amp;action=list&amp;nav=2&amp;sub=7&amp;catId=6715911</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>政府采购</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:31</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6596861/11723957.html</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=f5cc5a1925b14f439a7ceafedb485bf7&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>签定合同</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>签订合同</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>巴中市自然资源和规划局巴州分局关于话筒、调音台等会议办公设备采购公告</t>
+        </is>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/column/6596861?type=4&amp;action=list&amp;nav=2&amp;sub=7&amp;catId=6715911</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>政府采购</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:31</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/group2/M00/00/02/rBUtIV4gcTaAWGxJAABiAII5PRM720.xls</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c997af2b97d144d0b5952afd5f47ef61&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>区生态环保局</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>区生态环境局</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>巴州区2019年度新型工业评分目标考核情况汇总表.xls</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/zwgk/jbxxgk/gsgg/8928841.html</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>巴中市巴州区经济和信息化局关于2019年度新型工业考核结果的公示</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/bazhouqu/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
+++ b/pcxzf/pcxzf/bazhouqu/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
@@ -1217,7 +1217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
@@ -1730,44 +1730,207 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>2025-02-22 09:31</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>http://www.bzqzf.gov.cn/group2/M00/00/02/rBUtIV4gcTaAWGxJAABiAII5PRM720.xls</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c997af2b97d144d0b5952afd5f47ef61&amp;type=0</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="1" t="inlineStr">
         <is>
           <t>区生态环保局</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="1" t="inlineStr">
         <is>
           <t>区生态环境局</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="1" t="inlineStr">
         <is>
           <t>巴州区2019年度新型工业评分目标考核情况汇总表.xls</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G13" s="1" t="inlineStr">
         <is>
           <t>http://www.bzqzf.gov.cn/zwgk/jbxxgk/gsgg/8928841.html</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" s="1" t="inlineStr">
         <is>
           <t>巴中市巴州区经济和信息化局关于2019年度新型工业考核结果的公示</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:04</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6597111/10797471.html</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=86ce135c00604ee8b794abc7e642bd98&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>区生态环保局</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>区生态环境局</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>大东社区 “四考核”提升网格管理服务水平</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/column/6597111?type=4&amp;action=list&amp;nav=2&amp;sub=5&amp;catId=6716071</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:41</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/oldfiles/bzq/upload/59a767e47f8b9acf685d2650/202001/202001101122351265_LG49mmwh?fileName=附件：2.2019年度巴州区12345政务服务热线工作考核评分明细表（区级部门） (1).xlsx</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e9aa167e855646e5bf4ce33b06642cc7&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>区退伍军人事务局</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>区退役军人事务局</t>
+        </is>
+      </c>
+      <c r="F15" s="1" t="inlineStr">
+        <is>
+          <t>附件：附件：2.2019年度巴州区12345政务服务热线工作考核评分明细表（区级部门） (1).xlsx</t>
+        </is>
+      </c>
+      <c r="G15" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/zwgk/jbxxgk/gsgg/10886951.html</t>
+        </is>
+      </c>
+      <c r="H15" s="1" t="inlineStr">
+        <is>
+          <t>巴中市巴州区政务服务和公共资源交易服务中心 关于2019年度巴州区12345政务服务热线工作考核结果的公示</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:42</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6597111/11612149.html</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2f1a9c38cf184aa7b5b26840350ed2cb&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>居民委会</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>居民委员会</t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>巴中市巴州区东城街道办事处</t>
+        </is>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/column/6597111?type=4&amp;action=list&amp;nav=2&amp;sub=0&amp;catId=6715981</t>
+        </is>
+      </c>
+      <c r="H16" s="1" t="inlineStr">
+        <is>
+          <t>机关简介</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:43</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/jczwgk/gkly/ggwhfw/ggfw/xjcfdyczlhzdjcqzwhhd/11613803.html</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=fdded521437b4befaf16de32e08cba60&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>、以及</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>以及</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>“巴城记忆 龙跃新春”2024龙年迎春活动盛大开幕</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/jczwgk/gkly/ggwhfw/ggfw/xjcfdyczlhzdjcqzwhhd/index.html</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>演出、基层文化活动和公益性文化活动</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/bazhouqu/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
+++ b/pcxzf/pcxzf/bazhouqu/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
@@ -1217,7 +1217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
@@ -1893,44 +1893,995 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>2025-02-23 10:43</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>http://www.bzqzf.gov.cn/jczwgk/gkly/ggwhfw/ggfw/xjcfdyczlhzdjcqzwhhd/11613803.html</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=fdded521437b4befaf16de32e08cba60&amp;type=0</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="1" t="inlineStr">
         <is>
           <t>、以及</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="1" t="inlineStr">
         <is>
           <t>以及</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="1" t="inlineStr">
         <is>
           <t>“巴城记忆 龙跃新春”2024龙年迎春活动盛大开幕</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G17" s="1" t="inlineStr">
         <is>
           <t>http://www.bzqzf.gov.cn/jczwgk/gkly/ggwhfw/ggfw/xjcfdyczlhzdjcqzwhhd/index.html</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" s="1" t="inlineStr">
         <is>
           <t>演出、基层文化活动和公益性文化活动</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:14</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/zwgk/jbxxgk/gsgg/11725014.html</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c9e1fcfffe1a469a84de3ff93b7b7e91&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>经济经济开发区</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="inlineStr">
+        <is>
+          <t>经济开发区</t>
+        </is>
+      </c>
+      <c r="F18" s="1" t="inlineStr">
+        <is>
+          <t>巴中市巴州区人民政府关于巴中市2024年第2批次建设用地征收土地公告</t>
+        </is>
+      </c>
+      <c r="G18" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn</t>
+        </is>
+      </c>
+      <c r="H18" s="1" t="inlineStr">
+        <is>
+          <t>巴中市巴州区人民政府</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:14</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/zwgk/jbxxgk/gsgg/10885581.html</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=4fd8e519a7994b0ba0d3f1468fe5ce02&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F19" s="1" t="inlineStr">
+        <is>
+          <t>巴中市巴州区公开招聘卫生专业技术人员工作领导小组关于2018年巴中市巴州区公开考试招聘卫生专业技术人员的公告</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/content/column/6787941?pageIndex=68</t>
+        </is>
+      </c>
+      <c r="H19" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:14</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6597391/11101141.html</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5356c767475a4748b8c706a8cf499061&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>巴中市巴州区教育科技和体育局关于2021年度公开考试招聘幼儿教师的公告</t>
+        </is>
+      </c>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/column/6597391?type=4&amp;action=list&amp;nav=2&amp;sub=10&amp;catId=6715801</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:14</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/tzbz/zsxx/8421161.html</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=daa8e7e32f7e4d1a832ce9a8067450a1&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>四川巴州生态农业科技示范园区建设项目招商公告</t>
+        </is>
+      </c>
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/content/column/6787581?pageIndex=8</t>
+        </is>
+      </c>
+      <c r="H21" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:14</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/zwgk/jbxxgk/gsgg/10885591.html</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c9fa85e1060541b48251a7787b0869c3&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
+          <t>巴中市巴州区公开招聘卫生专业技术人员工作领导小组关于2018年巴中市巴州区公开考核招聘卫生专业技术人员的公告</t>
+        </is>
+      </c>
+      <c r="G22" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/content/column/6787941?pageIndex=68</t>
+        </is>
+      </c>
+      <c r="H22" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:14</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/zwgk/jbxxgk/rsxx/rskl/10848281.html</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2ec6920e9b9a4b29b25ee9bcf2ec73cf&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>关于2020年度公开考试招聘幼儿教师的公告</t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/content/column/6788101?pageIndex=3</t>
+        </is>
+      </c>
+      <c r="H23" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:14</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6596761/10550771.html</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=19f4cb9471da41ea9e6f8a30c568159a&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>关于2020年度公开考试招聘幼儿教师的公告</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/column/6596761?type=4&amp;action=list&amp;nav=2&amp;sub=10&amp;catId=6715951</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:14</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/zwgk/jbxxgk/gsgg/11046371.html</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=8bb1e509cc5341f88c9d476840fe464d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F25" s="1" t="inlineStr">
+        <is>
+          <t>巴中市巴州区教育科技和体育局关于2021年度公开考试招聘幼儿教师的公告</t>
+        </is>
+      </c>
+      <c r="G25" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/content/column/6787941?pageIndex=43</t>
+        </is>
+      </c>
+      <c r="H25" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:14</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6597391/10823171.html</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=1eb7f0cd4eed4bd5baa5ace775f38b6f&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F26" s="1" t="inlineStr">
+        <is>
+          <t>关于2020年度公开考试招聘幼儿教师的公告</t>
+        </is>
+      </c>
+      <c r="G26" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/column/6597391?type=4&amp;catId=6715801&amp;action=list&amp;pageIndex=4</t>
+        </is>
+      </c>
+      <c r="H26" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:14</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6596831/9239461.html</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=f7968116f69c463ebc6ad09a6710d14b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F27" s="1" t="inlineStr">
+        <is>
+          <t>四川省巴中市巴州区巴中市职业中学办公桌椅公开招标征求意见公告</t>
+        </is>
+      </c>
+      <c r="G27" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/column/6596831?type=4&amp;action=list&amp;nav=2&amp;sub=6&amp;catId=6715911&amp;pageIndex=25</t>
+        </is>
+      </c>
+      <c r="H27" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:14</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6597391/11456731.html</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=62ddee083779495a993ce6c273998947&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F28" s="1" t="inlineStr">
+        <is>
+          <t>关于2022年度公开考试招聘幼儿教师的公告</t>
+        </is>
+      </c>
+      <c r="G28" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/column/6597391?type=4&amp;action=list&amp;nav=2&amp;sub=10&amp;catId=6715801</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:14</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/zwgk/jbxxgk/gsgg/11390611.html</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=38cc98699d4242588683fb337b095ecb&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E29" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F29" s="1" t="inlineStr">
+        <is>
+          <t>关于2022年度公开考试招聘幼儿教师的公告</t>
+        </is>
+      </c>
+      <c r="G29" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/content/column/6787941?pageIndex=35</t>
+        </is>
+      </c>
+      <c r="H29" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 14:35</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/zwgk/jbxxgk/qzfcwh/11725103.html</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5f8936a600214dae810dfd255a2d29b7&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>习近平总书记的讲话精神</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="inlineStr">
+        <is>
+          <t>习近平总书记重要讲话精神</t>
+        </is>
+      </c>
+      <c r="F30" s="1" t="inlineStr">
+        <is>
+          <t>黄俊霖主持召开区政府二十届第79次常务会议</t>
+        </is>
+      </c>
+      <c r="G30" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/zwgk/jbxxgk/qzfcwh/index.html</t>
+        </is>
+      </c>
+      <c r="H30" s="1" t="inlineStr">
+        <is>
+          <t>区政府常务会</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 14:35</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/zwgk/jbxxgk/qzhd/11725100.html</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5590bdbd866f4181bfdc5500a264ae16&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>习近平总书记的讲话精神</t>
+        </is>
+      </c>
+      <c r="E31" s="1" t="inlineStr">
+        <is>
+          <t>习近平总书记重要讲话精神</t>
+        </is>
+      </c>
+      <c r="F31" s="1" t="inlineStr">
+        <is>
+          <t>黄俊霖主持召开区政府二十届第79次常务会议</t>
+        </is>
+      </c>
+      <c r="G31" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/zwgk/jbxxgk/qzhd/index.html</t>
+        </is>
+      </c>
+      <c r="H31" s="1" t="inlineStr">
+        <is>
+          <t>区长活动</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 14:35</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/zwdt/zwyw/11725095.html</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=79da343d22fb45449bed3a7b56fe3ec2&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>习近平总书记的讲话精神</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <t>习近平总书记重要讲话精神</t>
+        </is>
+      </c>
+      <c r="F32" s="1" t="inlineStr">
+        <is>
+          <t>黄俊霖主持召开区政府二十届第79次常务会议</t>
+        </is>
+      </c>
+      <c r="G32" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn</t>
+        </is>
+      </c>
+      <c r="H32" s="1" t="inlineStr">
+        <is>
+          <t>巴中市巴州区人民政府</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-27 10:43</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/group2/M00/09/62/rBUtIWe-ipyAL7dEAAAs1JQVr5o421.xls</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=6569c4dc4143436bb3a546a848d6e05f&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>因难</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="inlineStr">
+        <is>
+          <t>困难</t>
+        </is>
+      </c>
+      <c r="F33" s="1" t="inlineStr">
+        <is>
+          <t>巴州区2024-2025年冬春生活救助资金发放情况.xls</t>
+        </is>
+      </c>
+      <c r="G33" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/jczwgk/gkly/jzscly/zhjz/yzgdqshjz/11725144.html</t>
+        </is>
+      </c>
+      <c r="H33" s="1" t="inlineStr">
+        <is>
+          <t>巴州区2024-2025年冬春生活救助资金发放情况</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-27 10:43</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/group2/M00/09/62/rBUtIWe-ipyAL7dEAAAs1JQVr5o421.xls</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=54903ff2057743aebf32fdccd3967a26&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>因难</t>
+        </is>
+      </c>
+      <c r="E34" s="1" t="inlineStr">
+        <is>
+          <t>困难</t>
+        </is>
+      </c>
+      <c r="F34" s="1" t="inlineStr">
+        <is>
+          <t>巴州区2024-2025年冬春生活救助资金发放情况.xls</t>
+        </is>
+      </c>
+      <c r="G34" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/jczwgk/gkly/jzscly/zhjz/yzgdqshjz/11725144.html</t>
+        </is>
+      </c>
+      <c r="H34" s="1" t="inlineStr">
+        <is>
+          <t>巴州区2024-2025年冬春生活救助资金发放情况</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-27 10:43</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/group2/M00/09/62/rBUtIWe-ipyAL7dEAAAs1JQVr5o421.xls</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3c79283a135645599e69be5386866fc5&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>因难</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="inlineStr">
+        <is>
+          <t>困难</t>
+        </is>
+      </c>
+      <c r="F35" s="1" t="inlineStr">
+        <is>
+          <t>巴州区2024-2025年冬春生活救助资金发放情况.xls</t>
+        </is>
+      </c>
+      <c r="G35" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/jczwgk/gkly/jzscly/zhjz/yzgdqshjz/11725144.html</t>
+        </is>
+      </c>
+      <c r="H35" s="1" t="inlineStr">
+        <is>
+          <t>巴州区2024-2025年冬春生活救助资金发放情况</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-27 10:43</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/group2/M00/09/62/rBUtIWe-ipyAL7dEAAAs1JQVr5o421.xls</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=03d2485f6117473ea6bd49cd066d94ad&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t>因难</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="inlineStr">
+        <is>
+          <t>困难</t>
+        </is>
+      </c>
+      <c r="F36" s="1" t="inlineStr">
+        <is>
+          <t>巴州区2024-2025年冬春生活救助资金发放情况.xls</t>
+        </is>
+      </c>
+      <c r="G36" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/jczwgk/gkly/jzscly/zhjz/yzgdqshjz/11725144.html</t>
+        </is>
+      </c>
+      <c r="H36" s="1" t="inlineStr">
+        <is>
+          <t>巴州区2024-2025年冬春生活救助资金发放情况</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-27 10:43</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/group2/M00/09/62/rBUtIWe-ipyAL7dEAAAs1JQVr5o421.xls</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=64f2038cf0f94aaa919ef796162f1536&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>因难</t>
+        </is>
+      </c>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <t>困难</t>
+        </is>
+      </c>
+      <c r="F37" s="1" t="inlineStr">
+        <is>
+          <t>巴州区2024-2025年冬春生活救助资金发放情况.xls</t>
+        </is>
+      </c>
+      <c r="G37" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/jczwgk/gkly/jzscly/zhjz/yzgdqshjz/11725144.html</t>
+        </is>
+      </c>
+      <c r="H37" s="1" t="inlineStr">
+        <is>
+          <t>巴州区2024-2025年冬春生活救助资金发放情况</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-27 10:43</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/group2/M00/09/62/rBUtIWe-ipyAL7dEAAAs1JQVr5o421.xls</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=615f01600d684e6999d8519cf7e72ae3&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <t>因难</t>
+        </is>
+      </c>
+      <c r="E38" s="1" t="inlineStr">
+        <is>
+          <t>困难</t>
+        </is>
+      </c>
+      <c r="F38" s="1" t="inlineStr">
+        <is>
+          <t>巴州区2024-2025年冬春生活救助资金发放情况.xls</t>
+        </is>
+      </c>
+      <c r="G38" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/jczwgk/gkly/jzscly/zhjz/yzgdqshjz/11725144.html</t>
+        </is>
+      </c>
+      <c r="H38" s="1" t="inlineStr">
+        <is>
+          <t>巴州区2024-2025年冬春生活救助资金发放情况</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-27 10:43</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/group2/M00/09/62/rBUtIWe-ipyAL7dEAAAs1JQVr5o421.xls</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=606e05deb61e49169d32863543418f0d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>因难</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="inlineStr">
+        <is>
+          <t>困难</t>
+        </is>
+      </c>
+      <c r="F39" s="1" t="inlineStr">
+        <is>
+          <t>巴州区2024-2025年冬春生活救助资金发放情况.xls</t>
+        </is>
+      </c>
+      <c r="G39" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/jczwgk/gkly/jzscly/zhjz/yzgdqshjz/11725144.html</t>
+        </is>
+      </c>
+      <c r="H39" s="1" t="inlineStr">
+        <is>
+          <t>巴州区2024-2025年冬春生活救助资金发放情况</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-02-27 10:43</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/group2/M00/09/62/rBUtIWe-ipyAL7dEAAAs1JQVr5o421.xls</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=899395b258bb4b3e8decd06ec7be5257&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>因难</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>困难</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>巴州区2024-2025年冬春生活救助资金发放情况.xls</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/jczwgk/gkly/jzscly/zhjz/yzgdqshjz/11725144.html</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>巴州区2024-2025年冬春生活救助资金发放情况</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/bazhouqu/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
+++ b/pcxzf/pcxzf/bazhouqu/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
@@ -1217,7 +1217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
@@ -2844,44 +2844,926 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>2025-02-27 10:43</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>http://www.bzqzf.gov.cn/group2/M00/09/62/rBUtIWe-ipyAL7dEAAAs1JQVr5o421.xls</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=899395b258bb4b3e8decd06ec7be5257&amp;type=0</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" s="1" t="inlineStr">
         <is>
           <t>因难</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E40" s="1" t="inlineStr">
         <is>
           <t>困难</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" s="1" t="inlineStr">
         <is>
           <t>巴州区2024-2025年冬春生活救助资金发放情况.xls</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G40" s="1" t="inlineStr">
         <is>
           <t>http://www.bzqzf.gov.cn/jczwgk/gkly/jzscly/zhjz/yzgdqshjz/11725144.html</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H40" s="1" t="inlineStr">
         <is>
           <t>巴州区2024-2025年冬春生活救助资金发放情况</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-28 08:40</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/ztzl/fzzfjs/ndbg/11725077.html</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=ef66f7fdccc24213a55cc3fa4f630a0f&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>理论中心组</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <t>理论学习中心组</t>
+        </is>
+      </c>
+      <c r="F41" s="1" t="inlineStr">
+        <is>
+          <t>巴中市巴州区发展和改革局关于2024年度法治政府建设情况的报告</t>
+        </is>
+      </c>
+      <c r="G41" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/ztzl/fzzfjs/index.html</t>
+        </is>
+      </c>
+      <c r="H41" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 专题专栏 &gt; 法治政府建设 </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-28 08:40</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/ztzl/fzzfjs/ndbg/11725346.html</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=1b652809d9564086acf7e9fbf45c67a1&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>各负其职</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <t>各负其责</t>
+        </is>
+      </c>
+      <c r="F42" s="1" t="inlineStr">
+        <is>
+          <t>巴中市巴州区回风街道办事处关于2024年度法治政府建设情况的报告</t>
+        </is>
+      </c>
+      <c r="G42" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/ztzl/fzzfjs/index.html</t>
+        </is>
+      </c>
+      <c r="H42" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 专题专栏 &gt; 法治政府建设 </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-28 08:40</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6597191/11725318.html</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=bff005f9595e42c9b732a089aa2e329e&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>党风廉政责任制</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="inlineStr">
+        <is>
+          <t>党风廉政建设责任制</t>
+        </is>
+      </c>
+      <c r="F43" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   关于2024年工作总结及2025年工作计划的报告</t>
+        </is>
+      </c>
+      <c r="G43" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/column/6597191?type=4&amp;action=list&amp;nav=2&amp;sub=1&amp;catId=6716001</t>
+        </is>
+      </c>
+      <c r="H43" s="1" t="inlineStr">
+        <is>
+          <t>光辉镇 &gt; 规划信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-28 14:09</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/group2/M00/07/0A/rBUtIWTTO4iAY2U7AACkDIOzT74243.doc</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=fa255c80e0d84198926070946d40729d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>园满</t>
+        </is>
+      </c>
+      <c r="E44" s="1" t="inlineStr">
+        <is>
+          <t>圆满</t>
+        </is>
+      </c>
+      <c r="F44" s="1" t="inlineStr">
+        <is>
+          <t>巴中市巴州区大和乡2016年财政预算执行情况和2017年财政预算草案的报告.doc</t>
+        </is>
+      </c>
+      <c r="G44" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6597341/9592401.html</t>
+        </is>
+      </c>
+      <c r="H44" s="1" t="inlineStr">
+        <is>
+          <t>巴中市巴州区大和乡2016年财政预算执行情况和</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-28 14:09</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/group2/M00/07/0A/rBUtIWTTO4iAY2U7AACkDIOzT74243.doc</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=4dc55df9a363405da8744f6cae2b6c77&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>园满</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>圆满</t>
+        </is>
+      </c>
+      <c r="F45" s="1" t="inlineStr">
+        <is>
+          <t>巴中市巴州区大和乡2016年财政预算执行情况和2017年财政预算草案的报告.doc</t>
+        </is>
+      </c>
+      <c r="G45" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6597341/9592401.html</t>
+        </is>
+      </c>
+      <c r="H45" s="1" t="inlineStr">
+        <is>
+          <t>巴中市巴州区大和乡2016年财政预算执行情况和</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-28 14:10</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/group2/M00/07/0F/rBUtIWTlY-GAAZUGAACeAP2xsYk923.doc</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=6500ffb2c9ab472b8d0ad62199df4926&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>园满</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="inlineStr">
+        <is>
+          <t>圆满</t>
+        </is>
+      </c>
+      <c r="F46" s="1" t="inlineStr">
+        <is>
+          <t>巴中市巴州区鼎山镇2016年财政预算执行情况和2017年财政预算草案的报告（书面）.doc</t>
+        </is>
+      </c>
+      <c r="G46" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6597361/9613631.html</t>
+        </is>
+      </c>
+      <c r="H46" s="1" t="inlineStr">
+        <is>
+          <t>2016年政府决算信息公开报表及说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-28 14:10</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/group2/M00/07/0F/rBUtIWTlY-GAAZUGAACeAP2xsYk923.doc</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=1064e537987840fdb84c4267a480f7cd&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>园满</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="inlineStr">
+        <is>
+          <t>圆满</t>
+        </is>
+      </c>
+      <c r="F47" s="1" t="inlineStr">
+        <is>
+          <t>巴中市巴州区鼎山镇2016年财政预算执行情况和2017年财政预算草案的报告（书面）.doc</t>
+        </is>
+      </c>
+      <c r="G47" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6597361/9613631.html</t>
+        </is>
+      </c>
+      <c r="H47" s="1" t="inlineStr">
+        <is>
+          <t>2016年政府决算信息公开报表及说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-02 14:10</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6596921/11725290.html</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=6e378a4476bd4310a8184ff0f555c18e&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>理论中心组</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>理论学习中心组</t>
+        </is>
+      </c>
+      <c r="F48" s="1" t="inlineStr">
+        <is>
+          <t>关于2024年法治政府建设工作情况的报告</t>
+        </is>
+      </c>
+      <c r="G48" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/column/6596921?type=4&amp;catId=6715951&amp;action=list</t>
+        </is>
+      </c>
+      <c r="H48" s="1" t="inlineStr">
+        <is>
+          <t>区投资促进局 &gt; 其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-04 08:30</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/jczwgk/gkly/ggwhfw/ggfw/ggwhjgmfkfxx/11521319.html</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=a3169be51bf742baa546f1401158c0ed&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>下午14:00</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="inlineStr">
+        <is>
+          <t>14:00|下午2:00</t>
+        </is>
+      </c>
+      <c r="F49" s="1" t="inlineStr">
+        <is>
+          <t>巴州区晏阳初博物馆免费了开放信息</t>
+        </is>
+      </c>
+      <c r="G49" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/jczwgk/gkly/ggwhfw/ggfw/ggwhjgmfkfxx/index.html</t>
+        </is>
+      </c>
+      <c r="H49" s="1" t="inlineStr">
+        <is>
+          <t>公共文化场地的免费开放服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-04 15:26</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6596751/11714937.html</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=ef3fbf7b131a4e63b3ca2641976aaaa2&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D50" s="1" t="inlineStr">
+        <is>
+          <t>总书记系列讲话精神</t>
+        </is>
+      </c>
+      <c r="E50" s="1" t="inlineStr">
+        <is>
+          <t>习近平总书记系列重要讲话精神</t>
+        </is>
+      </c>
+      <c r="F50" s="1" t="inlineStr">
+        <is>
+          <t>巴中市巴州区社会事务服务中心_2023年部门决算公开编制说明</t>
+        </is>
+      </c>
+      <c r="G50" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/column/6596751?type=4&amp;catId=6715951&amp;action=list</t>
+        </is>
+      </c>
+      <c r="H50" s="1" t="inlineStr">
+        <is>
+          <t>区民政局 &gt; 其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:08</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/ztzl/fzzfjs/ndbg/11725181.html</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=a3063d9ddbfe4525ac935f830beff8dd&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>理论中心组</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="inlineStr">
+        <is>
+          <t>理论学习中心组</t>
+        </is>
+      </c>
+      <c r="F51" s="1" t="inlineStr">
+        <is>
+          <t>巴中市巴州区教育科技局关于2024年法治政府建设工作情况的报告</t>
+        </is>
+      </c>
+      <c r="G51" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/ztzl/fzzfjs/index.html</t>
+        </is>
+      </c>
+      <c r="H51" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">法治政府建设 </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:08</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/ztzl/fzzfjs/ndbg/11727332.html</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=7d7dafb47df74649970b589d0cc6979f&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D52" s="1" t="inlineStr">
+        <is>
+          <t>理论中心组</t>
+        </is>
+      </c>
+      <c r="E52" s="1" t="inlineStr">
+        <is>
+          <t>理论学习中心组</t>
+        </is>
+      </c>
+      <c r="F52" s="1" t="inlineStr">
+        <is>
+          <t>2024年度法治政府建设情况报告</t>
+        </is>
+      </c>
+      <c r="G52" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/ztzl/fzzfjs/index.html</t>
+        </is>
+      </c>
+      <c r="H52" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 专题专栏 &gt; 法治政府建设 </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:08</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/ztzl/fzzfjs/ndbg/11727332.html</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=21c869780a02495ea060cbde14fd5bd2&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>国家审计署</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="inlineStr">
+        <is>
+          <t>审计署</t>
+        </is>
+      </c>
+      <c r="F53" s="1" t="inlineStr">
+        <is>
+          <t>2024年度法治政府建设情况报告</t>
+        </is>
+      </c>
+      <c r="G53" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/ztzl/fzzfjs/index.html</t>
+        </is>
+      </c>
+      <c r="H53" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 专题专栏 &gt; 法治政府建设 </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:08</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6596861/11725085.html</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=73d91f45b4ff4ff4b1e6526fc4bd0c10&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <t>下午15:00</t>
+        </is>
+      </c>
+      <c r="E54" s="1" t="inlineStr">
+        <is>
+          <t>15:00|下午3:00</t>
+        </is>
+      </c>
+      <c r="F54" s="1" t="inlineStr">
+        <is>
+          <t>巴中市自然资源和规划局巴州分局 关于采购巴州区自然资源综合动态监测工作 服务项目的公告</t>
+        </is>
+      </c>
+      <c r="G54" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/column/6596861?type=4&amp;action=list&amp;nav=2&amp;sub=7&amp;catId=6715911</t>
+        </is>
+      </c>
+      <c r="H54" s="1" t="inlineStr">
+        <is>
+          <t>政府采购</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:08</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/zwdt/ssrd/11725558.html</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0d6da106842f4548bf7b22e276388400&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D55" s="1" t="inlineStr">
+        <is>
+          <t>“专精特新”中小企业</t>
+        </is>
+      </c>
+      <c r="E55" s="1" t="inlineStr">
+        <is>
+          <t>专精特新中小企业</t>
+        </is>
+      </c>
+      <c r="F55" s="1" t="inlineStr">
+        <is>
+          <t>秀我中国｜超燃！新质生产力这一年</t>
+        </is>
+      </c>
+      <c r="G55" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn</t>
+        </is>
+      </c>
+      <c r="H55" s="1" t="inlineStr">
+        <is>
+          <t>巴中市巴州区人民政府</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 11:19</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6597191/11725573.html</t>
+        </is>
+      </c>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=7ba74ce6b4d340c2b86ad556a1a5a785&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>镇府</t>
+        </is>
+      </c>
+      <c r="E56" s="1" t="inlineStr">
+        <is>
+          <t>政府/镇政府</t>
+        </is>
+      </c>
+      <c r="F56" s="1" t="inlineStr">
+        <is>
+          <t>光辉镇2025年度地质灾害应急预案</t>
+        </is>
+      </c>
+      <c r="G56" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/column/6597191?type=4&amp;action=list&amp;nav=2&amp;sub=6&amp;catId=6716091</t>
+        </is>
+      </c>
+      <c r="H56" s="1" t="inlineStr">
+        <is>
+          <t>光辉镇 &gt; 其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 14:18</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6597391/11727509.html</t>
+        </is>
+      </c>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=cf496002a9d64a3c88a853fdc2190763&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D57" s="1" t="inlineStr">
+        <is>
+          <t>胸怀国之大者</t>
+        </is>
+      </c>
+      <c r="E57" s="1" t="inlineStr">
+        <is>
+          <t>胸怀“国之大者”</t>
+        </is>
+      </c>
+      <c r="F57" s="1" t="inlineStr">
+        <is>
+          <t>2025年政府工作报告</t>
+        </is>
+      </c>
+      <c r="G57" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/column/6597391?type=4&amp;catId=6716281&amp;action=list</t>
+        </is>
+      </c>
+      <c r="H57" s="1" t="inlineStr">
+        <is>
+          <t>区人民政府 &gt; 政府工作报告</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 14:18</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6597391/11727509.html</t>
+        </is>
+      </c>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=a4ed5f502856405ba92881dacdcedfb4&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D58" s="1" t="inlineStr">
+        <is>
+          <t>“专精特新”中小企业</t>
+        </is>
+      </c>
+      <c r="E58" s="1" t="inlineStr">
+        <is>
+          <t>专精特新中小企业</t>
+        </is>
+      </c>
+      <c r="F58" s="1" t="inlineStr">
+        <is>
+          <t>2025年政府工作报告</t>
+        </is>
+      </c>
+      <c r="G58" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/column/6597391?type=4&amp;catId=6716281&amp;action=list</t>
+        </is>
+      </c>
+      <c r="H58" s="1" t="inlineStr">
+        <is>
+          <t>区人民政府 &gt; 政府工作报告</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-07 09:13</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6596751/11727777.html</t>
+        </is>
+      </c>
+      <c r="C59" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=321d77c709a54eb598b671f177573ba6&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D59" s="1" t="inlineStr">
+        <is>
+          <t>截止目前</t>
+        </is>
+      </c>
+      <c r="E59" s="1" t="inlineStr">
+        <is>
+          <t>截至目前</t>
+        </is>
+      </c>
+      <c r="F59" s="1" t="inlineStr">
+        <is>
+          <t>巴中市巴州区2024年度中央福彩公益金转移支付项目绩效自评报告</t>
+        </is>
+      </c>
+      <c r="G59" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/column/6596751?type=4&amp;catId=6715951&amp;action=list</t>
+        </is>
+      </c>
+      <c r="H59" s="1" t="inlineStr">
+        <is>
+          <t>区民政局 &gt; 其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-07 09:13</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6596751/11727777.html</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=a60dc030905e4e69956367043714d8fc&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <t>截止目前</t>
+        </is>
+      </c>
+      <c r="E60" s="1" t="inlineStr">
+        <is>
+          <t>截至目前</t>
+        </is>
+      </c>
+      <c r="F60" s="1" t="inlineStr">
+        <is>
+          <t>巴中市巴州区2024年度中央福彩公益金转移支付项目绩效自评报告</t>
+        </is>
+      </c>
+      <c r="G60" s="1" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/column/6596751?type=4&amp;catId=6715951&amp;action=list</t>
+        </is>
+      </c>
+      <c r="H60" s="1" t="inlineStr">
+        <is>
+          <t>区民政局 &gt; 其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-03-07 09:13</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/6596751/11727777.html</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9e571babd1bc4da88f979fb473f14c3c&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>截止目前</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>截至目前</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>巴中市巴州区2024年度中央福彩公益金转移支付项目绩效自评报告</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>http://www.bzqzf.gov.cn/public/column/6596751?type=4&amp;catId=6715951&amp;action=list</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>区民政局 &gt; 其他法定信息</t>
         </is>
       </c>
     </row>
